--- a/20160411 - 001/running_logs/logs.xlsx
+++ b/20160411 - 001/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Time</t>
   </si>
@@ -113,6 +113,48 @@
   </si>
   <si>
     <t>20160412_111156</t>
+  </si>
+  <si>
+    <t>20160412_162229</t>
+  </si>
+  <si>
+    <t>remove break line, convert unicode to ascii, remove multiple spaces, trim "space" and ",", convert to lower</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 2000</t>
+  </si>
+  <si>
+    <t>20160412_164010</t>
+  </si>
+  <si>
+    <t>20160412_165902</t>
+  </si>
+  <si>
+    <t>20160412_171806</t>
+  </si>
+  <si>
+    <t>20160412_173721</t>
+  </si>
+  <si>
+    <t>20160413_093647</t>
+  </si>
+  <si>
+    <t>remove break line, convert to lower, remove multiple spaces, trim "space" and ",", convert unicode to ascii</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 3000</t>
+  </si>
+  <si>
+    <t>20160413_100533</t>
+  </si>
+  <si>
+    <t>20160413_103540</t>
+  </si>
+  <si>
+    <t>20160413_110607</t>
+  </si>
+  <si>
+    <t>20160413_113625</t>
   </si>
 </sst>
 </file>
@@ -444,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,6 +841,326 @@
         <v>0.357142857142857</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>1060.729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>0.993333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1131.973</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>0.994</v>
+      </c>
+      <c r="H13">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>1144.295</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>0.990666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>1154.394</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>0.992</v>
+      </c>
+      <c r="H15">
+        <v>0.993399339933993</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0.360824742268041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>1160.037</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>0.992</v>
+      </c>
+      <c r="H16">
+        <v>0.993399339933993</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.288659793814433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>1726.334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>0.992</v>
+      </c>
+      <c r="H17">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.427083333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1806.556</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>0.994666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.99009900990099</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.395833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>1827.053</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>0.995333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.993399339933993</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0.412371134020619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1818.312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>0.992</v>
+      </c>
+      <c r="H20">
+        <v>0.996699669966997</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.316326530612245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>1828.379</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>0.992</v>
+      </c>
+      <c r="H21">
+        <v>0.996699669966997</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.26530612244898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
